--- a/DATA_goal/Junction_Flooding_417.xlsx
+++ b/DATA_goal/Junction_Flooding_417.xlsx
@@ -655,103 +655,103 @@
         <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.96</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.28</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.66</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.14</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.24</v>
+        <v>72.39</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.38</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.92</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.52</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.62</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.11</v>
+        <v>61.15</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.66</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.01</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_417.xlsx
+++ b/DATA_goal/Junction_Flooding_417.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45098.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.96</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.69</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.55</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>48.94</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45098.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.96</v>
+        <v>1.441</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.53</v>
+        <v>0.369</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.308</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.28</v>
+        <v>2.888</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.57</v>
+        <v>1.794</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.05</v>
+        <v>1.14</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.66</v>
+        <v>11.081</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.57</v>
+        <v>1.745</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.55</v>
+        <v>0.612</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.8</v>
+        <v>0.541</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.14</v>
+        <v>1.118</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.96</v>
+        <v>0.998</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.59</v>
+        <v>0.399</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.07</v>
+        <v>1.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.35</v>
+        <v>1.568</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.22</v>
+        <v>1.346</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.64</v>
+        <v>1.429</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.623</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.39</v>
+        <v>10.001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.31</v>
+        <v>3.735</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.58</v>
+        <v>1.041</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>2.258</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.62</v>
+        <v>0.913</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.725</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.32</v>
+        <v>4.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.67</v>
+        <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.8</v>
+        <v>1.099</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.04</v>
+        <v>1.234</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.31</v>
+        <v>0.977</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.38</v>
+        <v>10.731</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.04</v>
+        <v>0.402</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.76</v>
+        <v>1.315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45098.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>4.589</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>14.515</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>5.293</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>18.923</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>8.144</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3.399</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.989</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5.824</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>5.263</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>7.284</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.686</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>72.736</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>14.562</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>4.858</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>9.465999999999999</v>
+      </c>
+      <c r="X4" s="4" t="n">
         <v>4.97</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>4</v>
-      </c>
       <c r="Y4" s="4" t="n">
-        <v>0.5</v>
+        <v>1.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.989000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.64</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.37</v>
+        <v>3.962</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.92</v>
+        <v>4.633</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.52</v>
+        <v>5.999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.62</v>
+        <v>16.844</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.17</v>
+        <v>2.622</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.13</v>
+        <v>6.073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45098.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.9</v>
+        <v>6.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.53</v>
+        <v>4.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.78</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.37</v>
+        <v>14.56</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.62</v>
+        <v>11.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.4</v>
+        <v>5.29</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.32</v>
+        <v>20.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.73</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.11</v>
+        <v>3.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.85</v>
+        <v>5.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.11</v>
+        <v>5.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.25</v>
+        <v>6.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.4</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.4</v>
+        <v>7.38</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.7</v>
+        <v>4.62</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>61.15</v>
+        <v>72.78</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>12.37</v>
+        <v>14.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.01</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.33</v>
+        <v>9.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.66</v>
+        <v>5.06</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.01</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.36</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.73</v>
+        <v>3.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.62</v>
+        <v>4.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.38</v>
+        <v>6.07</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.37</v>
+        <v>18.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>78.34999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.38</v>
+        <v>6.07</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_417.xlsx
+++ b/DATA_goal/Junction_Flooding_417.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45098.50694444445</v>
+        <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.217</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.901</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.042</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.812</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.818</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.123</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.986</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.269</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.67</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.076</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.742</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.827</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.038</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.994</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.85</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.46</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.249</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.547</v>
+        <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>41.81</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.881</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.553</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.055</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.03</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.312</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.261</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.125</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.047</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.565</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.456</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.557</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.647</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.354</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45098.51388888889</v>
+        <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.441</v>
+        <v>6.958</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.369</v>
+        <v>5.535</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.308</v>
+        <v>0.611</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.888</v>
+        <v>14.276</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.794</v>
+        <v>12.566</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.14</v>
+        <v>5.049</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.081</v>
+        <v>17.657</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.745</v>
+        <v>7.572</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.612</v>
+        <v>3.548</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.541</v>
+        <v>5.804</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.118</v>
+        <v>6.139</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.998</v>
+        <v>5.961</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.399</v>
+        <v>1.594</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.128</v>
+        <v>5.067</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.568</v>
+        <v>7.348</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.346</v>
+        <v>4.222</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.429</v>
+        <v>0.641</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.623</v>
+        <v>0.018</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.001</v>
+        <v>72.39100000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.735</v>
+        <v>14.308</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.041</v>
+        <v>4.576</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.258</v>
+        <v>9.472</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.913</v>
+        <v>5.622</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.725</v>
+        <v>0.713</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.9</v>
+        <v>10.322</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.92</v>
+        <v>3.671</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.099</v>
+        <v>4.8</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.234</v>
+        <v>4.041</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.977</v>
+        <v>6.307</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.265</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.731</v>
+        <v>15.376</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.402</v>
+        <v>3.036</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.315</v>
+        <v>5.762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45098.52083333334</v>
+        <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.726</v>
+        <v>4.972</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.589</v>
+        <v>3.895</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.997</v>
+        <v>0.405</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.515</v>
+        <v>10.22</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.55</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.293</v>
+        <v>3.602</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18.923</v>
+        <v>15.271</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.144</v>
+        <v>5.461</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.399</v>
+        <v>2.584</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.989</v>
+        <v>4.129</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.824</v>
+        <v>4.323</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.03</v>
+        <v>4.31</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.685</v>
+        <v>1.164</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.263</v>
+        <v>3.614</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.284</v>
+        <v>5.316</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.686</v>
+        <v>3.055</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.969</v>
+        <v>0.433</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.532</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.736</v>
+        <v>49.661</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.562</v>
+        <v>10.31</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.858</v>
+        <v>3.271</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.465999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.97</v>
+        <v>3.997</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.502</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.989000000000001</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.291</v>
+        <v>2.642</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.962</v>
+        <v>3.369</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.633</v>
+        <v>2.919</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.999</v>
+        <v>4.519</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.844</v>
+        <v>13.618</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.622</v>
+        <v>2.171</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.073</v>
+        <v>4.127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45098.52777777778</v>
+        <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.73</v>
+        <v>5.901</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.71</v>
+        <v>4.533</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.371</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.56</v>
+        <v>12.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.68</v>
+        <v>10.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.29</v>
+        <v>4.396</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.29</v>
+        <v>17.321</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>6.727</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.49</v>
+        <v>3.108</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>4.853</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>5.109</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>5.249</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>4.395</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>6.397</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.704</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>61.148</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>12.369</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.011</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>8.332000000000001</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.662</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>9.006</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3.358</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.732</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>3.619</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>15.374</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2.524</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>5.046</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>78.34999999999999</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="V6" s="4" t="n">
         <v>5.08</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>72.78</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>18.36</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>6.07</v>
+      <c r="W6" s="4" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_417.xlsx
+++ b/DATA_goal/Junction_Flooding_417.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45098.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.96</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.926</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.074</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.69</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.442</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.413</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.191000000000001</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.526</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.102</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.543</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.171</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.55</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.877</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.454</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.766</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.485</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.205</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>48.94</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.632</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.995</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.545</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.641</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.661</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.552</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.905</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.889</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.236</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.485</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.812</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.376</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.752</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45098.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.958</v>
+        <v>1.441</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.535</v>
+        <v>0.369</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.611</v>
+        <v>1.308</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.276</v>
+        <v>2.888</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.566</v>
+        <v>1.794</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.049</v>
+        <v>1.14</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.657</v>
+        <v>11.081</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.572</v>
+        <v>1.745</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.548</v>
+        <v>0.612</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.804</v>
+        <v>0.541</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.139</v>
+        <v>1.118</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.961</v>
+        <v>0.998</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.594</v>
+        <v>0.399</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.067</v>
+        <v>1.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.348</v>
+        <v>1.568</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.222</v>
+        <v>1.346</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.641</v>
+        <v>1.429</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.018</v>
+        <v>0.623</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.39100000000001</v>
+        <v>10.001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.308</v>
+        <v>3.735</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.576</v>
+        <v>1.041</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.472</v>
+        <v>2.258</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.622</v>
+        <v>0.913</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.713</v>
+        <v>0.725</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.322</v>
+        <v>4.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.671</v>
+        <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.8</v>
+        <v>1.099</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.041</v>
+        <v>1.234</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.307</v>
+        <v>0.977</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.033</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.376</v>
+        <v>10.731</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.036</v>
+        <v>0.402</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.762</v>
+        <v>1.315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45098.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.972</v>
+        <v>6.726</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.895</v>
+        <v>4.589</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.405</v>
+        <v>0.997</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.22</v>
+        <v>14.515</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>11.55</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.602</v>
+        <v>5.293</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.271</v>
+        <v>18.923</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.461</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.584</v>
+        <v>3.399</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.129</v>
+        <v>4.989</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.323</v>
+        <v>5.824</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.31</v>
+        <v>6.03</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.164</v>
+        <v>1.685</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.614</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.316</v>
+        <v>7.284</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.055</v>
+        <v>4.686</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.433</v>
+        <v>0.969</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.532</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.661</v>
+        <v>72.736</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.31</v>
+        <v>14.562</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.271</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.91</v>
+        <v>9.465999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.997</v>
+        <v>4.97</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.502</v>
+        <v>1.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.276999999999999</v>
+        <v>8.989000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.642</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.369</v>
+        <v>3.962</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.919</v>
+        <v>4.633</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.519</v>
+        <v>5.999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.618</v>
+        <v>16.844</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.171</v>
+        <v>2.622</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.127</v>
+        <v>6.073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45098.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.901</v>
+        <v>6.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.533</v>
+        <v>4.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.371</v>
+        <v>0.78</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.37</v>
+        <v>14.56</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.62</v>
+        <v>11.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.396</v>
+        <v>5.29</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.321</v>
+        <v>20.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.727</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.108</v>
+        <v>3.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.853</v>
+        <v>5.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.109</v>
+        <v>5.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.249</v>
+        <v>6.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.422</v>
+        <v>1.69</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.395</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.397</v>
+        <v>7.38</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.704</v>
+        <v>4.62</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.349</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.056</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>61.148</v>
+        <v>72.78</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>12.369</v>
+        <v>14.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.011</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.332000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.662</v>
+        <v>5.06</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.596</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.006</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.358</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.732</v>
+        <v>3.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.619</v>
+        <v>4.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.378</v>
+        <v>6.07</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.374</v>
+        <v>18.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.524</v>
+        <v>2.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.046</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>78.34999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.38</v>
+        <v>6.07</v>
       </c>
     </row>
   </sheetData>
